--- a/new original/_Lang_Chinese/Lang/CN/Game/Check.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Check.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">lockpick</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">dogmeat</t>

--- a/new original/_Lang_Chinese/Lang/CN/Game/Check.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Check.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">lockpick</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">dogmeat</t>
